--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43499,6 +43499,41 @@
         <v>80500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>302000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43534,6 +43534,41 @@
         <v>302000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>189000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43569,6 +43569,41 @@
         <v>189000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>129800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43604,6 +43604,41 @@
         <v>129800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43639,6 +43639,41 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>120000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43674,6 +43674,41 @@
         <v>120000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>36500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43709,6 +43709,43 @@
         <v>36500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43746,6 +43746,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>174100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43781,6 +43781,43 @@
         <v>174100</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43818,6 +43818,41 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>102000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43853,6 +43853,41 @@
         <v>102000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>586500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43888,6 +43888,41 @@
         <v>586500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>16000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43923,6 +43923,78 @@
         <v>16000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>317500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43995,6 +43995,76 @@
         <v>317500</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>89300</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>45800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44065,6 +44065,43 @@
         <v>45800</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44102,6 +44102,41 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>300000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44137,6 +44137,41 @@
         <v>300000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>69200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44172,6 +44172,41 @@
         <v>69200</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>114600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44207,6 +44207,78 @@
         <v>114600</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>374500</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1239" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44279,6 +44279,41 @@
         </is>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>34000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44314,6 +44314,41 @@
         <v>34000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>300600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2055"/>
+  <dimension ref="A1:I2056"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72839,6 +72839,41 @@
         <v>300600</v>
       </c>
     </row>
+    <row r="2056">
+      <c r="A2056" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2056" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2056" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2056" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2056" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2056" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2056" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2056" t="n">
+        <v>156400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2056"/>
+  <dimension ref="A1:I2057"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72874,6 +72874,41 @@
         <v>156400</v>
       </c>
     </row>
+    <row r="2057">
+      <c r="A2057" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2057" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2057" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2057" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F2057" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2057" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2057" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2057" t="n">
+        <v>39800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2057"/>
+  <dimension ref="A1:I2058"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72909,6 +72909,43 @@
         <v>39800</v>
       </c>
     </row>
+    <row r="2058">
+      <c r="A2058" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2058" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2058" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2058" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2058" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2058" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2058" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2058" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2058"/>
+  <dimension ref="A1:I2059"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72946,6 +72946,41 @@
         </is>
       </c>
     </row>
+    <row r="2059">
+      <c r="A2059" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2059" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2059" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2059" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F2059" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2059" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2059" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2059" t="n">
+        <v>88100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2059"/>
+  <dimension ref="A1:I2060"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72981,6 +72981,41 @@
         <v>88100</v>
       </c>
     </row>
+    <row r="2060">
+      <c r="A2060" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2060" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2060" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2060" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2060" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2060" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2060" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2060" t="n">
+        <v>340500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2060"/>
+  <dimension ref="A1:I2061"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73016,6 +73016,41 @@
         <v>340500</v>
       </c>
     </row>
+    <row r="2061">
+      <c r="A2061" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2061" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2061" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2061" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F2061" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G2061" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2061" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I2061" t="n">
+        <v>105400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2061"/>
+  <dimension ref="A1:I2062"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73051,6 +73051,41 @@
         <v>105400</v>
       </c>
     </row>
+    <row r="2062">
+      <c r="A2062" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2062" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2062" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2062" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F2062" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G2062" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H2062" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I2062" t="n">
+        <v>46200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2062"/>
+  <dimension ref="A1:I2063"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73086,6 +73086,41 @@
         <v>46200</v>
       </c>
     </row>
+    <row r="2063">
+      <c r="A2063" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2063" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2063" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2063" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2063" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2063" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2063" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I2063" t="n">
+        <v>170900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2063"/>
+  <dimension ref="A1:I2064"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73121,6 +73121,41 @@
         <v>170900</v>
       </c>
     </row>
+    <row r="2064">
+      <c r="A2064" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2064" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2064" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2064" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F2064" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2064" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H2064" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2064" t="n">
+        <v>187500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2064"/>
+  <dimension ref="A1:I2065"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73156,6 +73156,43 @@
         <v>187500</v>
       </c>
     </row>
+    <row r="2065">
+      <c r="A2065" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2065" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2065" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2065" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2065" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2065" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2065" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2065" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2065"/>
+  <dimension ref="A1:I2066"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73193,6 +73193,41 @@
         </is>
       </c>
     </row>
+    <row r="2066">
+      <c r="A2066" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2066" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2066" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2066" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F2066" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2066" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2066" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I2066" t="n">
+        <v>69000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2066"/>
+  <dimension ref="A1:I2067"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73228,6 +73228,41 @@
         <v>69000</v>
       </c>
     </row>
+    <row r="2067">
+      <c r="A2067" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2067" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2067" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2067" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F2067" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2067" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2067" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I2067" t="n">
+        <v>45400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2067"/>
+  <dimension ref="A1:I2068"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73263,6 +73263,41 @@
         <v>45400</v>
       </c>
     </row>
+    <row r="2068">
+      <c r="A2068" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2068" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2068" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2068" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F2068" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G2068" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2068" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I2068" t="n">
+        <v>86000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2068"/>
+  <dimension ref="A1:I2069"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73298,6 +73298,41 @@
         <v>86000</v>
       </c>
     </row>
+    <row r="2069">
+      <c r="A2069" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2069" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2069" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2069" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2069" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2069" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2069" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2069" t="n">
+        <v>176200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2069"/>
+  <dimension ref="A1:I2070"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73333,6 +73333,43 @@
         <v>176200</v>
       </c>
     </row>
+    <row r="2070">
+      <c r="A2070" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2070" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2070" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2070" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2070" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2070" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2070" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2070" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2070"/>
+  <dimension ref="A1:I2071"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73370,6 +73370,41 @@
         </is>
       </c>
     </row>
+    <row r="2071">
+      <c r="A2071" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2071" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2071" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2071" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2071" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2071" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2071" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2071" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2071"/>
+  <dimension ref="A1:I2072"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73405,6 +73405,41 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="2072">
+      <c r="A2072" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2072" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2072" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2072" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2072" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2072" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2072" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2072" t="n">
+        <v>37600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2072"/>
+  <dimension ref="A1:I2073"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73440,6 +73440,41 @@
         <v>37600</v>
       </c>
     </row>
+    <row r="2073">
+      <c r="A2073" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2073" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2073" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2073" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2073" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2073" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2073" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2073" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2073" t="n">
+        <v>8500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2073"/>
+  <dimension ref="A1:I2074"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73475,6 +73475,41 @@
         <v>8500</v>
       </c>
     </row>
+    <row r="2074">
+      <c r="A2074" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2074" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2074" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2074" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2074" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2074" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2074" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2074" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I2074" t="n">
+        <v>110300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2074"/>
+  <dimension ref="A1:I2075"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73510,6 +73510,41 @@
         <v>110300</v>
       </c>
     </row>
+    <row r="2075">
+      <c r="A2075" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2075" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2075" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2075" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F2075" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G2075" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2075" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I2075" t="n">
+        <v>41000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2075"/>
+  <dimension ref="A1:I2076"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73545,6 +73545,41 @@
         <v>41000</v>
       </c>
     </row>
+    <row r="2076">
+      <c r="A2076" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2076" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2076" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2076" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2076" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F2076" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G2076" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H2076" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I2076" t="n">
+        <v>14900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2076"/>
+  <dimension ref="A1:I2077"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73580,6 +73580,41 @@
         <v>14900</v>
       </c>
     </row>
+    <row r="2077">
+      <c r="A2077" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2077" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2077" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2077" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F2077" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G2077" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2077" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I2077" t="n">
+        <v>13700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2077"/>
+  <dimension ref="A1:I2078"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73615,6 +73615,41 @@
         <v>13700</v>
       </c>
     </row>
+    <row r="2078">
+      <c r="A2078" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2078" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2078" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2078" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2078" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2078" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2078" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2078" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2078" t="n">
+        <v>22000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2078"/>
+  <dimension ref="A1:I2079"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73650,6 +73650,41 @@
         <v>22000</v>
       </c>
     </row>
+    <row r="2079">
+      <c r="A2079" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2079" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2079" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2079" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2079" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2079" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2079" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2079" t="n">
+        <v>73000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2079"/>
+  <dimension ref="A1:I2080"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73685,6 +73685,41 @@
         <v>73000</v>
       </c>
     </row>
+    <row r="2080">
+      <c r="A2080" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2080" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2080" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2080" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2080" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2080" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2080" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2080" t="n">
+        <v>85000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2080"/>
+  <dimension ref="A1:I2082"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73720,6 +73720,76 @@
         <v>85000</v>
       </c>
     </row>
+    <row r="2081">
+      <c r="A2081" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2081" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2081" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2081" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F2081" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2081" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2081" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2081" t="n">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2082" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2082" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2082" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2082" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2082" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2082" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I2082" t="n">
+        <v>63000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2082"/>
+  <dimension ref="A1:I2083"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73790,6 +73790,41 @@
         <v>63000</v>
       </c>
     </row>
+    <row r="2083">
+      <c r="A2083" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2083" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2083" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2083" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2083" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2083" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2083" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2083" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2083" t="n">
+        <v>33300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2083"/>
+  <dimension ref="A1:I2086"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73825,6 +73825,113 @@
         <v>33300</v>
       </c>
     </row>
+    <row r="2084">
+      <c r="A2084" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2084" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2084" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2084" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2084" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2084" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2084" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2084" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2085" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2085" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2085" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2085" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2085" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2085" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2085" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2086" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2086" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2086" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2086" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2086" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2086" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2086" t="n">
+        <v>13900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2086"/>
+  <dimension ref="A1:I2087"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73932,6 +73932,41 @@
         <v>13900</v>
       </c>
     </row>
+    <row r="2087">
+      <c r="A2087" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2087" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2087" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2087" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2087" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2087" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2087" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2087" t="n">
+        <v>154900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2087"/>
+  <dimension ref="A1:I2088"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73967,6 +73967,41 @@
         <v>154900</v>
       </c>
     </row>
+    <row r="2088">
+      <c r="A2088" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2088" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2088" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2088" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2088" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2088" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2088" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2088" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0158.xlsx
+++ b/data/0158.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2088"/>
+  <dimension ref="A1:I2091"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74002,6 +74002,111 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2089">
+      <c r="A2089" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2089" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2089" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2089" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F2089" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G2089" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2089" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2089" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2090" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2090" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2090" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2090" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2090" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2090" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I2090" t="n">
+        <v>42600</v>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2091" t="inlineStr">
+        <is>
+          <t>0158</t>
+        </is>
+      </c>
+      <c r="D2091" t="inlineStr">
+        <is>
+          <t>SCC</t>
+        </is>
+      </c>
+      <c r="E2091" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2091" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2091" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2091" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2091" t="n">
+        <v>68000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
